--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -554,12 +554,18 @@
       <c r="C2" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>0.21875</v>
+      </c>
       <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="6">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -853,7 +859,7 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
@@ -866,7 +872,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -574,11 +577,21 @@
       <c r="B3" s="3">
         <v>40757</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -859,11 +872,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -872,7 +885,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -600,11 +600,21 @@
       <c r="B4" s="3">
         <v>40758</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -872,7 +882,7 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
@@ -885,7 +895,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -520,7 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -601,10 +603,10 @@
         <v>40758</v>
       </c>
       <c r="C4" s="4">
-        <v>0.40625</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="D4" s="4">
-        <v>0.19791666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>14</v>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -520,9 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -606,11 +606,11 @@
       <c r="D4" s="4">
         <v>0.19444444444444445</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -623,11 +623,21 @@
       <c r="B5" s="3">
         <v>40759</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -882,7 +892,7 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
@@ -895,7 +905,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>22.5</v>
+        <v>30.5</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -646,11 +646,21 @@
       <c r="B6" s="3">
         <v>40760</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -892,11 +902,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -905,7 +915,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>30.5</v>
+        <v>38</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -534,7 +534,9 @@
       <c r="B7" s="7">
         <v>0.4284722222222222</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7">
+        <v>0.76180555555555562</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Fecha</t>
   </si>
@@ -545,9 +545,15 @@
       <c r="A8" s="1">
         <v>40764</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Fecha</t>
   </si>
@@ -559,9 +559,15 @@
       <c r="A9" s="1">
         <v>40765</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="7">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>Fecha</t>
   </si>
@@ -549,7 +549,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="C8" s="7">
-        <v>0.26041666666666669</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>40765</v>
       </c>
       <c r="B9" s="7">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C9" s="7">
         <v>0.2638888888888889</v>
@@ -573,9 +573,15 @@
       <c r="A10" s="1">
         <v>40766</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -4,41 +4,73 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="12915" windowHeight="5130"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8445"/>
   </bookViews>
   <sheets>
-    <sheet name="NoRenombrar" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+  <si>
+    <t>Día</t>
+  </si>
   <si>
     <t>Fecha</t>
   </si>
   <si>
+    <t>Hora Entrada</t>
+  </si>
+  <si>
+    <t>Hora Salida</t>
+  </si>
+  <si>
+    <t>Almuerzo</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Ingreso</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Almuerzo</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,8 +86,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,18 +103,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -98,29 +143,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -129,12 +223,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF99"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -430,273 +518,492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
         <v>40756</v>
       </c>
-      <c r="B2" s="7">
+      <c r="C2" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
         <v>40757</v>
       </c>
-      <c r="B3" s="7">
+      <c r="C3" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="4">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>40758</v>
       </c>
-      <c r="B4" s="7">
+      <c r="C4" s="4">
         <v>0.40277777777777773</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="4">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
         <v>40759</v>
       </c>
-      <c r="B5" s="7">
+      <c r="C5" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="4">
         <v>0.6875</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
         <v>40760</v>
       </c>
-      <c r="B6" s="7">
+      <c r="C6" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
         <v>40763</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C7" s="4">
         <v>0.4284722222222222</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="4">
         <v>0.76180555555555562</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
         <v>40764</v>
       </c>
-      <c r="B8" s="7">
+      <c r="C8" s="4">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="4">
         <v>0.25694444444444448</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
         <v>40765</v>
       </c>
-      <c r="B9" s="7">
+      <c r="C9" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="4">
         <v>0.2638888888888889</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
         <v>40766</v>
       </c>
-      <c r="B10" s="7">
+      <c r="C10" s="4">
         <v>0.46875</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="D10" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
         <v>40767</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>40770</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>40771</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>40772</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>40773</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>40774</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>40777</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>40778</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>40779</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>40780</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>40781</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>40784</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>40785</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>40786</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
+      <c r="C11" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="6">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8">
+        <f>SUM(F2:F24)</f>
+        <v>171</v>
+      </c>
+      <c r="G25" s="8">
+        <f>(SUM(G2:G24)/60)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="10">
+        <f>SUM(F25:G25)</f>
+        <v>173.5</v>
+      </c>
+      <c r="G26" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F26:G26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -781,36 +781,64 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="3">
+        <v>40770</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.21875</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="6">
         <v>8</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="3">
+        <v>40771</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.21875</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="6">
         <v>8</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="3">
+        <v>40772</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="6">
         <v>6</v>
       </c>
@@ -822,62 +850,110 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="3">
+        <v>40773</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.21875</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="6">
         <v>8</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="3">
+        <v>40774</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.21875</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="6">
         <v>8</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="3">
+        <v>40777</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="6">
         <v>8</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="3">
+        <v>40778</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="6">
         <v>8</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="3">
+        <v>40779</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="6">
         <v>6</v>
       </c>
@@ -889,62 +965,110 @@
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="3">
+        <v>40780</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="6">
         <v>8</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="3">
+        <v>40781</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="6">
         <v>8</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="3">
+        <v>40784</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="6">
         <v>8</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="3">
+        <v>40785</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="6">
         <v>8</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="3">
+        <v>40786</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="6">
         <v>6</v>
       </c>
@@ -962,7 +1086,7 @@
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,7 +1095,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>173.5</v>
+        <v>175.5</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -558,7 +558,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D2" s="4">
-        <v>0.71875</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>15</v>
@@ -567,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D3" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -604,7 +604,7 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="D4" s="4">
-        <v>0.69444444444444453</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -627,7 +627,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D5" s="4">
-        <v>0.6875</v>
+        <v>0.1875</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
@@ -650,16 +650,16 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D6" s="4">
-        <v>0.70833333333333337</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,19 +670,19 @@
         <v>40763</v>
       </c>
       <c r="C7" s="4">
-        <v>0.4284722222222222</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D7" s="4">
-        <v>0.76180555555555562</v>
+        <v>0.25</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>40764</v>
       </c>
       <c r="C8" s="4">
-        <v>0.44791666666666669</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="D8" s="4">
         <v>0.25694444444444448</v>
@@ -705,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="5">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D9" s="4">
-        <v>0.2638888888888889</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="5">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>40766</v>
       </c>
       <c r="C10" s="4">
-        <v>0.46875</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D10" s="4">
         <v>0.29166666666666669</v>
@@ -751,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="5">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,13 +765,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D11" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5">
         <v>30</v>
@@ -788,7 +788,7 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.21875</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.21875</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.21875</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.21875</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
@@ -935,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -1004,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1050,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.125</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,11 +1082,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G25" s="8">
         <f>(SUM(G2:G24)/60)</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -785,10 +785,10 @@
         <v>40770</v>
       </c>
       <c r="C12" s="4">
-        <v>0.375</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D12" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -811,13 +811,13 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.1388888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,13 +857,13 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E15" s="7" t="s">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.1388888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,13 +972,13 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F20" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.21180555555555555</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -1004,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.1388888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,11 +1082,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="8">
-        <f>(SUM(G2:G24)/60)</f>
-        <v>5.5</v>
+        <f>ROUND(SUM(G2:G24)/60, 2)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -788,7 +788,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D12" s="4">
-        <v>0.19791666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -785,10 +785,10 @@
         <v>40770</v>
       </c>
       <c r="C12" s="4">
-        <v>0.36458333333333331</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D12" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -808,10 +808,10 @@
         <v>40771</v>
       </c>
       <c r="C13" s="4">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="D13" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -820,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,19 +831,19 @@
         <v>40772</v>
       </c>
       <c r="C14" s="4">
-        <v>0.375</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D14" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F14" s="6">
         <v>6</v>
       </c>
       <c r="G14" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,16 +854,16 @@
         <v>40773</v>
       </c>
       <c r="C15" s="4">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D15" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E15" s="9" t="s">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -1082,11 +1082,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
-        <v>4.5</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>175.5</v>
+        <v>175.42</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -857,7 +857,7 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D15" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,13 +972,13 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>15</v>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -1082,11 +1082,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
-        <v>5.42</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>175.42</v>
+        <v>174.75</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -876,17 +879,17 @@
       <c r="B16" s="3">
         <v>40774</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -903,13 +906,13 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -926,13 +929,13 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -972,13 +975,13 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -995,13 +998,13 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1018,13 +1021,13 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -1041,13 +1044,13 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -1082,7 +1085,7 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
@@ -1095,7 +1098,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>174.75</v>
+        <v>172.75</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -906,7 +906,7 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
@@ -915,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
@@ -938,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,10 +952,10 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F19" s="6">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -984,7 +984,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -1007,7 +1007,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.25</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>172.75</v>
+        <v>175.5</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -972,7 +972,7 @@
         <v>40780</v>
       </c>
       <c r="C20" s="4">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D20" s="4">
         <v>0.27083333333333331</v>
@@ -981,10 +981,10 @@
         <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,13 +1067,13 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>175.5</v>
+        <v>175.25</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -949,10 +949,10 @@
         <v>40779</v>
       </c>
       <c r="C19" s="4">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D19" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>15</v>
@@ -975,7 +975,7 @@
         <v>0.4375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -1007,7 +1007,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -1076,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
-        <v>8.25</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>175.25</v>
+        <v>175.58</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -811,10 +811,10 @@
         <v>40771</v>
       </c>
       <c r="C13" s="4">
-        <v>0.40625</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D13" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.21875</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -860,7 +860,7 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D15" s="4">
-        <v>0.22916666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -869,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>40780</v>
       </c>
       <c r="C20" s="4">
-        <v>0.4375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D20" s="4">
         <v>0.29166666666666669</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.2638888888888889</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -1007,7 +1007,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.2638888888888889</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.2638888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.18055555555555555</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -1076,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -1018,7 +1018,7 @@
         <v>40784</v>
       </c>
       <c r="C22" s="4">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D22" s="4">
         <v>0.27083333333333331</v>
@@ -1027,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" s="5">
         <v>30</v>
@@ -1044,7 +1044,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,16 +1067,16 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
-        <v>8.58</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -1018,19 +1018,19 @@
         <v>40784</v>
       </c>
       <c r="C22" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D22" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.22916666666666666</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="5">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
-        <v>9.58</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>175.58</v>
+        <v>175.5</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1044,7 +1044,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.21180555555555555</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>175.5</v>
+        <v>175.75</v>
       </c>
       <c r="G26" s="11"/>
     </row>

--- a/Horas/Agosto.xlsx
+++ b/Horas/Agosto.xlsx
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1041,10 +1041,10 @@
         <v>40785</v>
       </c>
       <c r="C23" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D23" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1053,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,16 +1067,16 @@
         <v>0.375</v>
       </c>
       <c r="D24" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.1875</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G25" s="8">
         <f>ROUND(SUM(G2:G24)/60, 2)</f>
-        <v>8.75</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F26" s="10">
         <f>SUM(F25:G25)</f>
-        <v>175.75</v>
+        <v>175.58</v>
       </c>
       <c r="G26" s="11"/>
     </row>
